--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-out/op-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-out/op-rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B92C5C0-7413-D546-8356-A561DBF2F785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B13968C-D94F-AC42-B3B7-1E3613F48BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="3420" windowWidth="23400" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11580" yWindow="3420" windowWidth="26240" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI-LIST" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="82">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>98ae1d5d-52cf-4acc-9f47-22445e39a19c</t>
+  </si>
+  <si>
+    <t>控件类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOW</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -415,7 +427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -438,11 +450,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -485,8 +517,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:M27"/>
+  <dimension ref="A3:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.83203125" defaultRowHeight="21"/>
@@ -802,9 +840,9 @@
     <col min="3" max="3" width="28.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="65" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39.1640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="66.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -814,20 +852,21 @@
     <col min="15" max="16384" width="119.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -844,13 +883,18 @@
         <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="I4" s="1"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
@@ -867,13 +911,18 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="I5" s="1"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
         <v>57</v>
       </c>
@@ -889,12 +938,17 @@
       <c r="E6" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="H6" s="11"/>
+      <c r="I6" s="1"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="8" t="s">
         <v>58</v>
       </c>
@@ -910,12 +964,17 @@
       <c r="E7" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="H7" s="11"/>
+      <c r="I7" s="1"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="8" t="s">
         <v>59</v>
       </c>
@@ -931,12 +990,17 @@
       <c r="E8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="H8" s="11"/>
+      <c r="I8" s="1"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="8" t="s">
         <v>60</v>
       </c>
@@ -952,12 +1016,17 @@
       <c r="E9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="H9" s="11"/>
+      <c r="I9" s="1"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="8" t="s">
         <v>61</v>
       </c>
@@ -973,12 +1042,17 @@
       <c r="E10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="H10" s="11"/>
+      <c r="I10" s="1"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="8" t="s">
         <v>62</v>
       </c>
@@ -994,12 +1068,17 @@
       <c r="E11" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" s="19" customFormat="1">
+      <c r="H11" s="11"/>
+      <c r="I11" s="1"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" s="19" customFormat="1">
       <c r="A12" s="14" t="s">
         <v>63</v>
       </c>
@@ -1015,17 +1094,20 @@
       <c r="E12" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="I12" s="20"/>
+      <c r="H12" s="17"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="8" t="s">
         <v>64</v>
       </c>
@@ -1041,12 +1123,17 @@
       <c r="E13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="H13" s="11"/>
+      <c r="I13" s="1"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="8" t="s">
         <v>65</v>
       </c>
@@ -1062,12 +1149,17 @@
       <c r="E14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="H14" s="11"/>
+      <c r="I14" s="1"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="8" t="s">
         <v>66</v>
       </c>
@@ -1083,12 +1175,17 @@
       <c r="E15" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="H15" s="11"/>
+      <c r="I15" s="1"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="8" t="s">
         <v>67</v>
       </c>
@@ -1104,12 +1201,17 @@
       <c r="E16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="11"/>
+      <c r="I16" s="1"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="8" t="s">
         <v>68</v>
       </c>
@@ -1125,12 +1227,17 @@
       <c r="E17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="11"/>
+      <c r="I17" s="1"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
         <v>69</v>
       </c>
@@ -1146,12 +1253,17 @@
       <c r="E18" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="11"/>
+      <c r="I18" s="1"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="12" t="s">
         <v>70</v>
       </c>
@@ -1167,12 +1279,17 @@
       <c r="E19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="11"/>
+      <c r="I19" s="1"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="8" t="s">
         <v>71</v>
       </c>
@@ -1188,12 +1305,17 @@
       <c r="E20" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="11"/>
+      <c r="I20" s="1"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="8" t="s">
         <v>72</v>
       </c>
@@ -1209,12 +1331,17 @@
       <c r="E21" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="11"/>
+      <c r="I21" s="1"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
         <v>73</v>
       </c>
@@ -1230,12 +1357,17 @@
       <c r="E22" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="11"/>
+      <c r="I22" s="1"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="8" t="s">
         <v>74</v>
       </c>
@@ -1251,12 +1383,17 @@
       <c r="E23" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="11"/>
+      <c r="I23" s="1"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="8" t="s">
         <v>75</v>
       </c>
@@ -1272,12 +1409,17 @@
       <c r="E24" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="11"/>
+      <c r="I24" s="1"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="8" t="s">
         <v>76</v>
       </c>
@@ -1293,12 +1435,17 @@
       <c r="E25" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="11"/>
+      <c r="I25" s="1"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="8" t="s">
         <v>77</v>
       </c>
@@ -1314,12 +1461,17 @@
       <c r="E26" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="11"/>
+      <c r="I26" s="1"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="8" t="s">
         <v>78</v>
       </c>
@@ -1335,14 +1487,19 @@
       <c r="E27" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="1"/>
+      <c r="N27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-out/op-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-out/op-rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B13968C-D94F-AC42-B3B7-1E3613F48BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46561CC1-CFDD-264C-B453-0995B7B4BC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="3420" windowWidth="26240" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-39720" yWindow="-10640" windowWidth="33880" windowHeight="22300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI-LIST" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -320,6 +320,14 @@
   </si>
   <si>
     <t>FLOW</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理顺序</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiSort</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -517,15 +525,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:N27"/>
+  <dimension ref="A3:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F27"/>
+      <selection activeCell="H23" sqref="H23:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.83203125" defaultRowHeight="21"/>
@@ -842,8 +846,8 @@
     <col min="5" max="5" width="35.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39.1640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="66.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="61.83203125" style="3" bestFit="1" customWidth="1"/>
@@ -852,21 +856,22 @@
     <col min="15" max="16384" width="119.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -889,12 +894,16 @@
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
@@ -917,12 +926,16 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="8" t="s">
         <v>57</v>
       </c>
@@ -938,17 +951,21 @@
       <c r="E6" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="11">
+        <v>1005</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="1"/>
       <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="8" t="s">
         <v>58</v>
       </c>
@@ -964,17 +981,21 @@
       <c r="E7" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="11">
+        <v>1010</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="1"/>
       <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="8" t="s">
         <v>59</v>
       </c>
@@ -990,17 +1011,21 @@
       <c r="E8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="11">
+        <v>1005</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="1"/>
       <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="8" t="s">
         <v>60</v>
       </c>
@@ -1016,17 +1041,21 @@
       <c r="E9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="11">
+        <v>1010</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="1"/>
       <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="8" t="s">
         <v>61</v>
       </c>
@@ -1042,17 +1071,21 @@
       <c r="E10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="11">
+        <v>1015</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="1"/>
       <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="8" t="s">
         <v>62</v>
       </c>
@@ -1068,17 +1101,21 @@
       <c r="E11" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="11">
+        <v>1020</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="1"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" s="19" customFormat="1">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" s="19" customFormat="1">
       <c r="A12" s="14" t="s">
         <v>63</v>
       </c>
@@ -1094,20 +1131,23 @@
       <c r="E12" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="J12" s="20"/>
+      <c r="H12" s="17">
+        <v>1025</v>
+      </c>
+      <c r="I12" s="17"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="8" t="s">
         <v>64</v>
       </c>
@@ -1123,17 +1163,21 @@
       <c r="E13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="11">
+        <v>1005</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="1"/>
       <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="8" t="s">
         <v>65</v>
       </c>
@@ -1149,17 +1193,21 @@
       <c r="E14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="11">
+        <v>1010</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="1"/>
       <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="8" t="s">
         <v>66</v>
       </c>
@@ -1175,17 +1223,21 @@
       <c r="E15" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="11">
+        <v>1015</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="1"/>
       <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="8" t="s">
         <v>67</v>
       </c>
@@ -1201,17 +1253,21 @@
       <c r="E16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="11">
+        <v>1020</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="1"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="8" t="s">
         <v>68</v>
       </c>
@@ -1227,17 +1283,21 @@
       <c r="E17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="17">
+        <v>1025</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="1"/>
       <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="8" t="s">
         <v>69</v>
       </c>
@@ -1253,17 +1313,21 @@
       <c r="E18" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="11">
+        <v>1005</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="1"/>
       <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="12" t="s">
         <v>70</v>
       </c>
@@ -1279,17 +1343,21 @@
       <c r="E19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="11">
+        <v>1010</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="1"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="8" t="s">
         <v>71</v>
       </c>
@@ -1305,17 +1373,21 @@
       <c r="E20" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="11">
+        <v>1015</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="1"/>
       <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="8" t="s">
         <v>72</v>
       </c>
@@ -1331,17 +1403,21 @@
       <c r="E21" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="11">
+        <v>1020</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="1"/>
       <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="8" t="s">
         <v>73</v>
       </c>
@@ -1357,17 +1433,21 @@
       <c r="E22" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="1"/>
+      <c r="H22" s="17">
+        <v>1025</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="1"/>
       <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="8" t="s">
         <v>74</v>
       </c>
@@ -1383,17 +1463,21 @@
       <c r="E23" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="1"/>
+      <c r="H23" s="11">
+        <v>1005</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="1"/>
       <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="8" t="s">
         <v>75</v>
       </c>
@@ -1409,17 +1493,21 @@
       <c r="E24" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="11">
+        <v>1010</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="1"/>
       <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="8" t="s">
         <v>76</v>
       </c>
@@ -1435,17 +1523,21 @@
       <c r="E25" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="1"/>
+      <c r="H25" s="11">
+        <v>1015</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="1"/>
       <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="8" t="s">
         <v>77</v>
       </c>
@@ -1461,17 +1553,21 @@
       <c r="E26" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="11">
+        <v>1020</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="1"/>
       <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="8" t="s">
         <v>78</v>
       </c>
@@ -1487,19 +1583,23 @@
       <c r="E27" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="1"/>
+      <c r="H27" s="17">
+        <v>1025</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="1"/>
       <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B3:I3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
